--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23entangled/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE457737-1DC8-7347-865D-BE9CA5D7A679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68694578-3559-0744-BCCA-EC6622B0DCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
+    <workbookView xWindow="10480" yWindow="5200" windowWidth="30240" windowHeight="18880" xr2:uid="{F7F6A8B1-B433-1145-8F64-4C3194B5E823}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>filename</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>For the formation of the early Islamic community, identify which aspects can be traced and which ones remain open questions.</t>
+  </si>
+  <si>
+    <t>Describe how Jewish, Christian, and Islamic traditions both contributed _to_ "Golden Age" Arabic written culture and were themselves transformed _by_ it.</t>
+  </si>
+  <si>
+    <t>Describe why _hadith_ and _fiqh_ (jurisprudence) became important for establishing a civil society that included both Muslims and non-Muslims.</t>
+  </si>
+  <si>
+    <t>Describe the impact of the 11th-13th cent. regimes on the (1) social status, (2) connectedness, and (3) outside perceptions of Near Eastern Jews, Christians, and Muslims.</t>
   </si>
 </sst>
 </file>
@@ -520,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21747042-CCAC-104E-9F8E-130EDA7419B3}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1076,6 +1085,9 @@
         <f t="shared" si="5"/>
         <v>11-Rules-Rulers/Tradition</v>
       </c>
+      <c r="L12" t="s">
+        <v>51</v>
+      </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
         <v>[11]</v>
@@ -1119,6 +1131,9 @@
         <f t="shared" ref="J13:J15" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G13,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>12-A-Common-Language</v>
       </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
       <c r="M13" t="str">
         <f t="shared" ref="M13:M15" si="10">"["&amp;B13&amp;"]"</f>
         <v>[12]</v>
@@ -1166,6 +1181,9 @@
       <c r="J14" t="str">
         <f t="shared" si="9"/>
         <v>13-Converted-Conquerors</v>
+      </c>
+      <c r="L14" t="s">
+        <v>52</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="10"/>
